--- a/01 Ideas/data/recorddata.xlsx
+++ b/01 Ideas/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8A7EA-6698-4B66-AAA1-16C9D44ACEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C89C54-9A48-4AC0-AB71-5F3C1E03E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>log</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>Description of Record</t>
+  </si>
+  <si>
+    <t>What Can You Be</t>
+  </si>
+  <si>
+    <t>NM.ID.1</t>
+  </si>
+  <si>
+    <t>N. MANTEUFEL</t>
+  </si>
+  <si>
+    <t>You can be anything,_x000B_But I don’t recommend it._x000B__x000B_Be what you love._x000B_It is less easily upended.</t>
+  </si>
+  <si>
+    <t>Click or tap here to enter text.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -451,7 +472,7 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -486,7 +507,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45024</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>20230408095115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xpL/CWyzLgCZNOoyoaTdpVzqx5foToRSkfk53GsjDg8n/ZBUTpvesHXQHv5V4gaESt+mP849UtYIUXhLLvs5Xg==" saltValue="cbFWfOoX+TPxsm2QUkToPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 Ideas/data/recorddata.xlsx
+++ b/01 Ideas/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C89C54-9A48-4AC0-AB71-5F3C1E03E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEC3CA-A0D3-42A7-B86B-FCB7CF1E66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>log</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Creative Writing</t>
+  </si>
+  <si>
+    <t>NM.ID.02</t>
+  </si>
+  <si>
+    <t>Thinking about the life of digital content with significant signal to noise ratio on particular topics._x000B_What are the ethical perspectives that win the emotional challenges._x000B_What are the vulnerabilities of given cults._x000B_The signature of my writing should be my randomness. Before I die it will be easier for me to use a computer to generate acceptable normal-written-content for me.</t>
   </si>
 </sst>
 </file>
@@ -130,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,9 +179,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,26 +214,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,26 +249,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +426,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -554,8 +529,55 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45088</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>20230611120535</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xpL/CWyzLgCZNOoyoaTdpVzqx5foToRSkfk53GsjDg8n/ZBUTpvesHXQHv5V4gaESt+mP849UtYIUXhLLvs5Xg==" saltValue="cbFWfOoX+TPxsm2QUkToPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dF0Dec9CrT3x3WZ8NREMsiGl/j79WDJzeDEfwT6Mok1sB6VXPmc/nBb8etPGinV8zpWFFAlOdFPDVKYBpJBquw==" saltValue="Au6PJf5ddq8wvuPHl1Vo9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 Ideas/data/recorddata.xlsx
+++ b/01 Ideas/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEC3CA-A0D3-42A7-B86B-FCB7CF1E66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D1F5B-3995-405E-8A95-4B958802C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>log</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Thinking about the life of digital content with significant signal to noise ratio on particular topics._x000B_What are the ethical perspectives that win the emotional challenges._x000B_What are the vulnerabilities of given cults._x000B_The signature of my writing should be my randomness. Before I die it will be easier for me to use a computer to generate acceptable normal-written-content for me.</t>
+  </si>
+  <si>
+    <t>What is Tension</t>
+  </si>
+  <si>
+    <t>NM.ID.03</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -576,8 +582,55 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>20230802155613</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dF0Dec9CrT3x3WZ8NREMsiGl/j79WDJzeDEfwT6Mok1sB6VXPmc/nBb8etPGinV8zpWFFAlOdFPDVKYBpJBquw==" saltValue="Au6PJf5ddq8wvuPHl1Vo9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0SX+KFMIHTJK9XehkzofHfmLfHmS8ueniD4h80j5JIxqRd/x/FqST2rilQnYMpKEpVvGRw4k0yTjcr2Rt/p1Xg==" saltValue="dtXGPVDr9Is7ht44X6uVsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 Ideas/data/recorddata.xlsx
+++ b/01 Ideas/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D1F5B-3995-405E-8A95-4B958802C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FABDCD3-CD87-4892-8238-CFAC2D2F69E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>log</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>NM.ID.03</t>
+  </si>
+  <si>
+    <t>Modern “Ben Hur” Book</t>
+  </si>
+  <si>
+    <t>NM.ID.04</t>
+  </si>
+  <si>
+    <t>Create a modern day Ben Hur “book”.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -629,8 +638,55 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>20230827150500</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0SX+KFMIHTJK9XehkzofHfmLfHmS8ueniD4h80j5JIxqRd/x/FqST2rilQnYMpKEpVvGRw4k0yTjcr2Rt/p1Xg==" saltValue="dtXGPVDr9Is7ht44X6uVsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IYlvGw3GKUQ/1fgL1L9Sb0IpgLUzUTp/oqnzwNA31tmS20u30g0QFu21cgw+x/TjuQUoFdAMlEM8r0iZ98tEbQ==" saltValue="7R7mBtHMpaDDqGdvUQFldw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
